--- a/temp_email/gui_temp.xlsx
+++ b/temp_email/gui_temp.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="211">
   <si>
     <r>
       <rPr>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>rm88@mail.ru</t>
-  </si>
-  <si>
-    <t>info@dtckids.com.ua</t>
   </si>
   <si>
     <t>parque-gamer@hotmail.com</t>
@@ -1672,10 +1669,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A24" sqref="$A24:$XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2156,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="409.5" spans="1:4">
@@ -2170,7 +2167,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="409.5" spans="1:4">
@@ -2184,7 +2181,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" ht="409.5" spans="1:4">
@@ -2198,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="409.5" spans="1:4">
@@ -2212,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="409.5" spans="1:4">
@@ -2226,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="409.5" spans="1:4">
@@ -2240,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="409.5" spans="1:4">
@@ -2254,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="409.5" spans="1:4">
@@ -2268,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="409.5" spans="1:4">
@@ -2282,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="409.5" spans="1:4">
@@ -2296,7 +2293,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="409.5" spans="1:4">
@@ -2310,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="409.5" spans="1:4">
@@ -2324,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="409.5" spans="1:4">
@@ -2338,7 +2335,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="409.5" spans="1:4">
@@ -2352,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="1:4">
@@ -2366,7 +2363,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="409.5" spans="1:4">
@@ -2380,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="409.5" spans="1:4">
@@ -2394,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="409.5" spans="1:4">
@@ -2408,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="409.5" spans="1:4">
@@ -2422,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" ht="409.5" spans="1:4">
@@ -2436,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="409.5" spans="1:4">
@@ -2450,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="409.5" spans="1:4">
@@ -2464,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="409.5" spans="1:4">
@@ -2478,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" ht="409.5" spans="1:4">
@@ -2492,7 +2489,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="409.5" spans="1:4">
@@ -2506,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="409.5" spans="1:4">
@@ -2520,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" ht="409.5" spans="1:4">
@@ -2534,7 +2531,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="409.5" spans="1:4">
@@ -2548,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="409.5" spans="1:4">
@@ -2562,7 +2559,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="409.5" spans="1:4">
@@ -2576,7 +2573,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" ht="409.5" spans="1:4">
@@ -2590,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="409.5" spans="1:4">
@@ -2604,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="409.5" spans="1:4">
@@ -2618,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="409.5" spans="1:4">
@@ -2632,7 +2629,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="409.5" spans="1:4">
@@ -2646,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="409.5" spans="1:4">
@@ -2660,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="409.5" spans="1:4">
@@ -2674,7 +2671,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" ht="409.5" spans="1:4">
@@ -2688,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="409.5" spans="1:4">
@@ -2702,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="409.5" spans="1:4">
@@ -2716,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" ht="409.5" spans="1:4">
@@ -2730,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="409.5" spans="1:4">
@@ -2744,7 +2741,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="409.5" spans="1:4">
@@ -2758,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="409.5" spans="1:4">
@@ -2772,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" ht="409.5" spans="1:4">
@@ -2786,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="409.5" spans="1:4">
@@ -2800,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="409.5" spans="1:4">
@@ -2814,7 +2811,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" ht="409.5" spans="1:4">
@@ -2828,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="409.5" spans="1:4">
@@ -2842,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="409.5" spans="1:4">
@@ -2856,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="409.5" spans="1:4">
@@ -2870,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" ht="409.5" spans="1:4">
@@ -2884,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="409.5" spans="1:4">
@@ -2898,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="409.5" spans="1:4">
@@ -2912,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" ht="409.5" spans="1:4">
@@ -2926,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="409.5" spans="1:4">
@@ -2940,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="409.5" spans="1:4">
@@ -2954,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="409.5" spans="1:4">
@@ -2968,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" ht="409.5" spans="1:4">
@@ -2982,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="409.5" spans="1:4">
@@ -2996,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="409.5" spans="1:4">
@@ -3010,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="409.5" spans="1:4">
@@ -3024,7 +3021,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="409.5" spans="1:4">
@@ -3038,7 +3035,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="409.5" spans="1:4">
@@ -3052,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="409.5" spans="1:4">
@@ -3066,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" ht="409.5" spans="1:4">
@@ -3080,7 +3077,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="409.5" spans="1:4">
@@ -3094,7 +3091,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="409.5" spans="1:4">
@@ -3108,7 +3105,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" ht="409.5" spans="1:4">
@@ -3122,7 +3119,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="409.5" spans="1:4">
@@ -3136,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="409.5" spans="1:4">
@@ -3150,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:4">
@@ -3164,7 +3161,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" ht="409.5" spans="1:4">
@@ -3178,7 +3175,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" ht="409.5" spans="1:4">
@@ -3192,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="409.5" spans="1:4">
@@ -3206,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" ht="409.5" spans="1:4">
@@ -3220,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="409.5" spans="1:4">
@@ -3234,7 +3231,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="409.5" spans="1:4">
@@ -3248,7 +3245,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="409.5" spans="1:4">
@@ -3262,7 +3259,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" ht="409.5" spans="1:4">
@@ -3276,7 +3273,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="409.5" spans="1:4">
@@ -3290,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="409.5" spans="1:4">
@@ -3304,7 +3301,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" ht="409.5" spans="1:4">
@@ -3318,7 +3315,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="409.5" spans="1:4">
@@ -3332,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="409.5" spans="1:4">
@@ -3346,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="409.5" spans="1:4">
@@ -3360,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" ht="409.5" spans="1:4">
@@ -3374,7 +3371,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" ht="409.5" spans="1:4">
@@ -3388,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="409.5" spans="1:4">
@@ -3402,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" ht="409.5" spans="1:4">
@@ -3416,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="409.5" spans="1:4">
@@ -3430,7 +3427,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" ht="409.5" spans="1:4">
@@ -3444,7 +3441,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="409.5" spans="1:4">
@@ -3458,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" ht="409.5" spans="1:4">
@@ -3472,7 +3469,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" ht="409.5" spans="1:4">
@@ -3486,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="409.5" spans="1:4">
@@ -3500,7 +3497,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" ht="409.5" spans="1:4">
@@ -3514,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="409.5" spans="1:4">
@@ -3528,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" ht="409.5" spans="1:4">
@@ -3542,7 +3539,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" ht="409.5" spans="1:4">
@@ -3556,7 +3553,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" ht="409.5" spans="1:4">
@@ -3570,7 +3567,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" ht="409.5" spans="1:4">
@@ -3584,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" ht="409.5" spans="1:4">
@@ -3598,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" ht="409.5" spans="1:4">
@@ -3612,7 +3609,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="409.5" spans="1:4">
@@ -3626,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" ht="409.5" spans="1:4">
@@ -3640,7 +3637,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" ht="409.5" spans="1:4">
@@ -3654,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" ht="409.5" spans="1:4">
@@ -3668,7 +3665,7 @@
         <v>6</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" ht="409.5" spans="1:4">
@@ -3682,7 +3679,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" ht="409.5" spans="1:4">
@@ -3696,7 +3693,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" ht="409.5" spans="1:4">
@@ -3710,7 +3707,7 @@
         <v>6</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" ht="409.5" spans="1:4">
@@ -3724,7 +3721,7 @@
         <v>6</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" ht="409.5" spans="1:4">
@@ -3738,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" ht="409.5" spans="1:4">
@@ -3752,7 +3749,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" ht="409.5" spans="1:4">
@@ -3766,7 +3763,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" ht="409.5" spans="1:4">
@@ -3780,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" ht="409.5" spans="1:4">
@@ -3794,7 +3791,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" ht="409.5" spans="1:4">
@@ -3808,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" ht="409.5" spans="1:4">
@@ -3822,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" ht="409.5" spans="1:4">
@@ -3836,7 +3833,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" ht="409.5" spans="1:4">
@@ -3850,7 +3847,7 @@
         <v>6</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" ht="409.5" spans="1:4">
@@ -3864,7 +3861,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" ht="409.5" spans="1:4">
@@ -3878,7 +3875,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" ht="409.5" spans="1:4">
@@ -3892,7 +3889,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" ht="409.5" spans="1:4">
@@ -3906,7 +3903,7 @@
         <v>6</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" ht="409.5" spans="1:4">
@@ -3920,7 +3917,7 @@
         <v>6</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" ht="409.5" spans="1:4">
@@ -3934,7 +3931,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" ht="409.5" spans="1:4">
@@ -3948,7 +3945,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" ht="409.5" spans="1:4">
@@ -3962,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" ht="409.5" spans="1:4">
@@ -3976,7 +3973,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" ht="409.5" spans="1:4">
@@ -3990,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" ht="409.5" spans="1:4">
@@ -4004,7 +4001,7 @@
         <v>6</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" ht="409.5" spans="1:4">
@@ -4018,7 +4015,7 @@
         <v>6</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" ht="409.5" spans="1:4">
@@ -4032,7 +4029,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" ht="409.5" spans="1:4">
@@ -4046,7 +4043,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" ht="409.5" spans="1:4">
@@ -4060,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" ht="409.5" spans="1:4">
@@ -4074,7 +4071,7 @@
         <v>6</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" ht="409.5" spans="1:4">
@@ -4088,7 +4085,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" ht="409.5" spans="1:4">
@@ -4102,7 +4099,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" ht="409.5" spans="1:4">
@@ -4116,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" ht="409.5" spans="1:4">
@@ -4130,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" ht="409.5" spans="1:4">
@@ -4144,7 +4141,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" ht="409.5" spans="1:4">
@@ -4158,7 +4155,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" ht="409.5" spans="1:4">
@@ -4172,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" ht="409.5" spans="1:4">
@@ -4186,7 +4183,7 @@
         <v>6</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" ht="409.5" spans="1:4">
@@ -4200,7 +4197,7 @@
         <v>6</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" ht="409.5" spans="1:4">
@@ -4214,7 +4211,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" ht="409.5" spans="1:4">
@@ -4228,7 +4225,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" ht="409.5" spans="1:4">
@@ -4242,7 +4239,7 @@
         <v>6</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" ht="409.5" spans="1:4">
@@ -4256,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" ht="409.5" spans="1:4">
@@ -4270,7 +4267,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" ht="409.5" spans="1:4">
@@ -4284,7 +4281,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" ht="409.5" spans="1:4">
@@ -4298,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" ht="409.5" spans="1:4">
@@ -4312,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" ht="409.5" spans="1:4">
@@ -4326,7 +4323,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" ht="409.5" spans="1:4">
@@ -4340,7 +4337,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" ht="409.5" spans="1:4">
@@ -4354,7 +4351,7 @@
         <v>6</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" ht="409.5" spans="1:4">
@@ -4368,7 +4365,7 @@
         <v>6</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" ht="409.5" spans="1:4">
@@ -4382,7 +4379,7 @@
         <v>6</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" ht="409.5" spans="1:4">
@@ -4396,7 +4393,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" ht="409.5" spans="1:4">
@@ -4410,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" ht="409.5" spans="1:4">
@@ -4424,7 +4421,7 @@
         <v>6</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" ht="409.5" spans="1:4">
@@ -4438,7 +4435,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" ht="409.5" spans="1:4">
@@ -4452,7 +4449,7 @@
         <v>6</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" ht="409.5" spans="1:4">
@@ -4466,20 +4463,6 @@
         <v>6</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" ht="409.5" spans="1:4">
-      <c r="A200" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/temp_email/gui_temp.xlsx
+++ b/temp_email/gui_temp.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="843">
   <si>
     <r>
       <rPr>
@@ -290,9 +291,6 @@
   </si>
   <si>
     <t>brickholic@yahoo.com.hk</t>
-  </si>
-  <si>
-    <t>info@christchurchbrickshow.nz</t>
   </si>
   <si>
     <t>info@adventuretowntoys.com</t>
@@ -3246,7 +3244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3258,8 +3256,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3571,10 +3567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D832"/>
+  <dimension ref="A1:D831"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3594,4158 +3590,4153 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="6" t="s">
+      <c r="A239" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="6" t="s">
+      <c r="A240" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="6" t="s">
+      <c r="A242" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="6" t="s">
+      <c r="A243" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="6" t="s">
+      <c r="A244" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="6" t="s">
+      <c r="A246" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="6" t="s">
+      <c r="A248" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="6" t="s">
+      <c r="A249" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="6" t="s">
+      <c r="A250" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="6" t="s">
+      <c r="A251" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="6" t="s">
+      <c r="A253" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="6" t="s">
+      <c r="A254" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="6" t="s">
+      <c r="A256" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="6" t="s">
+      <c r="A258" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="6" t="s">
+      <c r="A260" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="6" t="s">
+      <c r="A262" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="6" t="s">
+      <c r="A264" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="6" t="s">
+      <c r="A265" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="6" t="s">
+      <c r="A266" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="6" t="s">
+      <c r="A267" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="6" t="s">
+      <c r="A268" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="6" t="s">
+      <c r="A269" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="6" t="s">
+      <c r="A270" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="6" t="s">
+      <c r="A271" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="6" t="s">
+      <c r="A272" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="6" t="s">
+      <c r="A273" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="6" t="s">
+      <c r="A274" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="6" t="s">
+      <c r="A276" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="6" t="s">
+      <c r="A279" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="6" t="s">
+      <c r="A282" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="6" t="s">
+      <c r="A283" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="6" t="s">
+      <c r="A284" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="6" t="s">
+      <c r="A286" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="6" t="s">
+      <c r="A287" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="6" t="s">
+      <c r="A288" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="6" t="s">
+      <c r="A290" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="6" t="s">
+      <c r="A291" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="6" t="s">
+      <c r="A292" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="6" t="s">
+      <c r="A294" s="2" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="6" t="s">
+      <c r="A295" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="6" t="s">
+      <c r="A296" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="6" t="s">
+      <c r="A297" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="6" t="s">
+      <c r="A298" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="6" t="s">
+      <c r="A299" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="6" t="s">
+      <c r="A300" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="6" t="s">
+      <c r="A304" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="6" t="s">
+      <c r="A306" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="6" t="s">
+      <c r="A307" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="6" t="s">
+      <c r="A308" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="6" t="s">
+      <c r="A309" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="6" t="s">
+      <c r="A310" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="6" t="s">
+      <c r="A311" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="6" t="s">
+      <c r="A312" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="6" t="s">
+      <c r="A313" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="6" t="s">
+      <c r="A314" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="6" t="s">
+      <c r="A315" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="6" t="s">
+      <c r="A316" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="6" t="s">
+      <c r="A317" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="6" t="s">
+      <c r="A318" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="6" t="s">
+      <c r="A319" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="6" t="s">
+      <c r="A320" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="6" t="s">
+      <c r="A321" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="6" t="s">
+      <c r="A322" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="6" t="s">
+      <c r="A323" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="6" t="s">
+      <c r="A324" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="6" t="s">
+      <c r="A325" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="6" t="s">
+      <c r="A326" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="6" t="s">
+      <c r="A327" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="6" t="s">
+      <c r="A328" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="6" t="s">
+      <c r="A329" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="6" t="s">
+      <c r="A330" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="6" t="s">
+      <c r="A331" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="6" t="s">
+      <c r="A332" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="6" t="s">
+      <c r="A333" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="6" t="s">
+      <c r="A334" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="6" t="s">
+      <c r="A335" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="6" t="s">
+      <c r="A336" s="2" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="6" t="s">
+      <c r="A337" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="6" t="s">
+      <c r="A338" s="2" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="6" t="s">
+      <c r="A339" s="2" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="6" t="s">
+      <c r="A340" s="2" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="6" t="s">
+      <c r="A341" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="6" t="s">
+      <c r="A342" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="6" t="s">
+      <c r="A343" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="6" t="s">
+      <c r="A344" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="6" t="s">
+      <c r="A345" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="6" t="s">
+      <c r="A346" s="2" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="6" t="s">
+      <c r="A347" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="6" t="s">
+      <c r="A348" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="6" t="s">
+      <c r="A349" s="2" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="6" t="s">
+      <c r="A350" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="6" t="s">
+      <c r="A351" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="6" t="s">
+      <c r="A352" s="2" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="6" t="s">
+      <c r="A353" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="6" t="s">
+      <c r="A354" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="6" t="s">
+      <c r="A355" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="6" t="s">
+      <c r="A356" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="6" t="s">
+      <c r="A357" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="6" t="s">
+      <c r="A358" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="6" t="s">
+      <c r="A359" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="6" t="s">
+      <c r="A360" s="2" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="6" t="s">
+      <c r="A361" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="6" t="s">
+      <c r="A362" s="2" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="6" t="s">
+      <c r="A363" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="6" t="s">
+      <c r="A364" s="2" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="6" t="s">
+      <c r="A365" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="6" t="s">
+      <c r="A366" s="2" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="6" t="s">
+      <c r="A367" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="6" t="s">
+      <c r="A368" s="2" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="6" t="s">
+      <c r="A369" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="6" t="s">
+      <c r="A370" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="6" t="s">
+      <c r="A371" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="6" t="s">
+      <c r="A372" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="6" t="s">
+      <c r="A373" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="6" t="s">
+      <c r="A374" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="6" t="s">
+      <c r="A375" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="6" t="s">
+      <c r="A376" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="6" t="s">
+      <c r="A377" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="6" t="s">
+      <c r="A378" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="6" t="s">
+      <c r="A379" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="6" t="s">
+      <c r="A380" s="2" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="6" t="s">
+      <c r="A381" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="6" t="s">
+      <c r="A382" s="2" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="6" t="s">
+      <c r="A383" s="2" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="6" t="s">
+      <c r="A384" s="2" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="6" t="s">
+      <c r="A385" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="6" t="s">
+      <c r="A386" s="2" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="6" t="s">
+      <c r="A387" s="2" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="6" t="s">
+      <c r="A388" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="6" t="s">
+      <c r="A389" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="6" t="s">
+      <c r="A390" s="2" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="6" t="s">
+      <c r="A391" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="6" t="s">
+      <c r="A392" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="6" t="s">
+      <c r="A393" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="6" t="s">
+      <c r="A394" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="6" t="s">
+      <c r="A395" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="6" t="s">
+      <c r="A396" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="6" t="s">
+      <c r="A397" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="6" t="s">
+      <c r="A398" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="6" t="s">
+      <c r="A399" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="6" t="s">
+      <c r="A400" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="6" t="s">
+      <c r="A401" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="6" t="s">
+      <c r="A402" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="6" t="s">
+      <c r="A403" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="6" t="s">
+      <c r="A404" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="6" t="s">
+      <c r="A405" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="6" t="s">
+      <c r="A406" s="2" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="6" t="s">
+      <c r="A407" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="6" t="s">
+      <c r="A408" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="6" t="s">
+      <c r="A409" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="6" t="s">
+      <c r="A410" s="2" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="6" t="s">
+      <c r="A411" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="6" t="s">
+      <c r="A412" s="2" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="6" t="s">
+      <c r="A413" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="6" t="s">
+      <c r="A414" s="2" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="6" t="s">
+      <c r="A415" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="6" t="s">
+      <c r="A416" s="2" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="6" t="s">
+      <c r="A417" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="6" t="s">
+      <c r="A418" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="6" t="s">
+      <c r="A419" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="6" t="s">
+      <c r="A420" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="6" t="s">
+      <c r="A421" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="6" t="s">
+      <c r="A422" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="6" t="s">
+      <c r="A423" s="2" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="6" t="s">
+      <c r="A424" s="2" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="6" t="s">
+      <c r="A425" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="6" t="s">
+      <c r="A426" s="2" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="6" t="s">
+      <c r="A427" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="6" t="s">
+      <c r="A428" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="6" t="s">
+      <c r="A429" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="6" t="s">
+      <c r="A430" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="6" t="s">
+      <c r="A431" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="6" t="s">
+      <c r="A432" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="6" t="s">
+      <c r="A433" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="6" t="s">
+      <c r="A434" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="6" t="s">
+      <c r="A435" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="6" t="s">
+      <c r="A436" s="2" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="6" t="s">
+      <c r="A437" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="6" t="s">
+      <c r="A438" s="2" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="6" t="s">
+      <c r="A439" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="6" t="s">
+      <c r="A440" s="2" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="6" t="s">
+      <c r="A441" s="2" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="6" t="s">
+      <c r="A442" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="6" t="s">
+      <c r="A443" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="6" t="s">
+      <c r="A444" s="2" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="6" t="s">
+      <c r="A445" s="2" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="6" t="s">
+      <c r="A446" s="2" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="6" t="s">
+      <c r="A447" s="2" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="6" t="s">
+      <c r="A448" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="6" t="s">
+      <c r="A449" s="2" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="6" t="s">
+      <c r="A450" s="2" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="6" t="s">
+      <c r="A451" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="6" t="s">
+      <c r="A452" s="2" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="6" t="s">
+      <c r="A453" s="2" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="6" t="s">
+      <c r="A454" s="2" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="6" t="s">
+      <c r="A455" s="2" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="6" t="s">
+      <c r="A456" s="2" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="6" t="s">
+      <c r="A457" s="2" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="6" t="s">
+      <c r="A458" s="2" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="6" t="s">
+      <c r="A459" s="2" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="6" t="s">
+      <c r="A460" s="2" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="6" t="s">
+      <c r="A461" s="2" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="6" t="s">
+      <c r="A462" s="2" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="6" t="s">
+      <c r="A463" s="2" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="6" t="s">
+      <c r="A464" s="2" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="6" t="s">
+      <c r="A465" s="2" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="6" t="s">
+      <c r="A466" s="2" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="6" t="s">
+      <c r="A467" s="2" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="6" t="s">
+      <c r="A468" s="2" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="6" t="s">
+      <c r="A469" s="2" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="6" t="s">
+      <c r="A470" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="6" t="s">
+      <c r="A471" s="2" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="6" t="s">
+      <c r="A472" s="2" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="6" t="s">
+      <c r="A473" s="2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="6" t="s">
+      <c r="A474" s="2" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="6" t="s">
+      <c r="A475" s="2" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="6" t="s">
+      <c r="A476" s="2" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="6" t="s">
+      <c r="A477" s="2" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="6" t="s">
+      <c r="A478" s="2" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="6" t="s">
+      <c r="A479" s="2" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="6" t="s">
+      <c r="A480" s="2" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="6" t="s">
+      <c r="A481" s="2" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="6" t="s">
+      <c r="A482" s="2" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="6" t="s">
+      <c r="A483" s="2" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="6" t="s">
+      <c r="A484" s="2" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="6" t="s">
+      <c r="A485" s="2" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="6" t="s">
+      <c r="A486" s="2" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="6" t="s">
+      <c r="A487" s="2" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="6" t="s">
+      <c r="A488" s="2" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="6" t="s">
+      <c r="A489" s="2" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="6" t="s">
+      <c r="A490" s="2" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="6" t="s">
+      <c r="A491" s="2" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="6" t="s">
+      <c r="A492" s="2" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="6" t="s">
+      <c r="A493" s="2" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="6" t="s">
+      <c r="A494" s="2" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="6" t="s">
+      <c r="A495" s="2" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="6" t="s">
+      <c r="A496" s="2" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="6" t="s">
+      <c r="A497" s="2" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="6" t="s">
+      <c r="A498" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="6" t="s">
+      <c r="A499" s="2" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="6" t="s">
+      <c r="A500" s="2" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="6" t="s">
+      <c r="A501" s="2" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="6" t="s">
+      <c r="A502" s="2" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="6" t="s">
+      <c r="A503" s="2" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="6" t="s">
+      <c r="A504" s="2" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="6" t="s">
+      <c r="A505" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="6" t="s">
+      <c r="A506" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="6" t="s">
+      <c r="A507" s="2" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="6" t="s">
+      <c r="A508" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="6" t="s">
+      <c r="A509" s="2" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="6" t="s">
+      <c r="A510" s="2" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="6" t="s">
+      <c r="A511" s="2" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="6" t="s">
+      <c r="A512" s="2" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="6" t="s">
+      <c r="A513" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="6" t="s">
+      <c r="A514" s="2" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="6" t="s">
+      <c r="A515" s="2" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="6" t="s">
+      <c r="A516" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="6" t="s">
+      <c r="A517" s="2" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="6" t="s">
+      <c r="A518" s="2" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="6" t="s">
+      <c r="A519" s="2" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="6" t="s">
+      <c r="A520" s="2" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="6" t="s">
+      <c r="A521" s="2" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="6" t="s">
+      <c r="A522" s="2" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="6" t="s">
+      <c r="A523" s="2" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="6" t="s">
+      <c r="A524" s="2" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="6" t="s">
+      <c r="A525" s="2" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="6" t="s">
+      <c r="A526" s="2" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="6" t="s">
+      <c r="A527" s="2" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="6" t="s">
+      <c r="A528" s="2" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="6" t="s">
+      <c r="A529" s="2" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="6" t="s">
+      <c r="A530" s="2" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="6" t="s">
+      <c r="A531" s="2" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="6" t="s">
+      <c r="A532" s="2" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="6" t="s">
+      <c r="A533" s="2" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="6" t="s">
+      <c r="A534" s="2" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="6" t="s">
+      <c r="A535" s="2" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="6" t="s">
+      <c r="A536" s="2" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="6" t="s">
+      <c r="A537" s="2" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="6" t="s">
+      <c r="A538" s="2" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="6" t="s">
+      <c r="A539" s="2" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="6" t="s">
+      <c r="A540" s="2" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="6" t="s">
+      <c r="A541" s="2" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="6" t="s">
+      <c r="A542" s="2" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="6" t="s">
+      <c r="A543" s="2" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="6" t="s">
+      <c r="A544" s="2" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="6" t="s">
+      <c r="A545" s="2" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="6" t="s">
+      <c r="A546" s="2" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="6" t="s">
+      <c r="A547" s="2" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="6" t="s">
+      <c r="A548" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="6" t="s">
+      <c r="A549" s="2" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="6" t="s">
+      <c r="A550" s="2" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="6" t="s">
+      <c r="A551" s="2" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="6" t="s">
+      <c r="A552" s="2" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="6" t="s">
+      <c r="A553" s="2" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="6" t="s">
+      <c r="A554" s="2" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="6" t="s">
+      <c r="A555" s="2" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="6" t="s">
+      <c r="A556" s="2" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="6" t="s">
+      <c r="A557" s="2" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="6" t="s">
+      <c r="A558" s="2" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="6" t="s">
+      <c r="A559" s="2" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="6" t="s">
+      <c r="A560" s="2" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="6" t="s">
+      <c r="A561" s="2" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="6" t="s">
+      <c r="A562" s="2" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="6" t="s">
+      <c r="A563" s="2" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="6" t="s">
+      <c r="A564" s="2" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="6" t="s">
+      <c r="A565" s="2" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="6" t="s">
+      <c r="A566" s="2" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="6" t="s">
+      <c r="A567" s="2" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="6" t="s">
+      <c r="A568" s="2" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="6" t="s">
+      <c r="A569" s="2" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="6" t="s">
+      <c r="A570" s="2" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="6" t="s">
+      <c r="A571" s="2" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="6" t="s">
+      <c r="A572" s="2" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="6" t="s">
+      <c r="A573" s="2" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="6" t="s">
+      <c r="A574" s="2" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="6" t="s">
+      <c r="A575" s="2" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="6" t="s">
+      <c r="A576" s="2" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="6" t="s">
+      <c r="A577" s="2" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="6" t="s">
+      <c r="A578" s="2" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="6" t="s">
+      <c r="A579" s="2" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="6" t="s">
+      <c r="A580" s="2" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="6" t="s">
+      <c r="A581" s="2" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="6" t="s">
+      <c r="A582" s="2" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="6" t="s">
+      <c r="A583" s="2" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="6" t="s">
+      <c r="A584" s="2" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="6" t="s">
+      <c r="A585" s="2" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="6" t="s">
+      <c r="A586" s="2" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="6" t="s">
+      <c r="A587" s="2" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="6" t="s">
+      <c r="A588" s="2" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="6" t="s">
+      <c r="A589" s="2" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="6" t="s">
+      <c r="A590" s="2" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" s="6" t="s">
+      <c r="A591" s="2" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="6" t="s">
+      <c r="A592" s="2" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="593" spans="1:1">
-      <c r="A593" s="6" t="s">
+      <c r="A593" s="2" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="6" t="s">
+      <c r="A594" s="2" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="6" t="s">
+      <c r="A595" s="2" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="6" t="s">
+      <c r="A596" s="2" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="6" t="s">
+      <c r="A597" s="2" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="6" t="s">
+      <c r="A598" s="2" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="6" t="s">
+      <c r="A599" s="2" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="6" t="s">
+      <c r="A600" s="2" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="6" t="s">
+      <c r="A601" s="2" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="6" t="s">
+      <c r="A602" s="2" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="6" t="s">
+      <c r="A603" s="2" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="604" spans="1:1">
-      <c r="A604" s="6" t="s">
+      <c r="A604" s="2" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="6" t="s">
+      <c r="A605" s="2" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="606" spans="1:1">
-      <c r="A606" s="6" t="s">
+      <c r="A606" s="2" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="607" spans="1:1">
-      <c r="A607" s="6" t="s">
+      <c r="A607" s="2" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="608" spans="1:1">
-      <c r="A608" s="6" t="s">
+      <c r="A608" s="2" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="609" spans="1:1">
-      <c r="A609" s="6" t="s">
+      <c r="A609" s="2" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="610" spans="1:1">
-      <c r="A610" s="6" t="s">
+      <c r="A610" s="2" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="611" spans="1:1">
-      <c r="A611" s="6" t="s">
+      <c r="A611" s="2" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="612" spans="1:1">
-      <c r="A612" s="6" t="s">
+      <c r="A612" s="2" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="613" spans="1:1">
-      <c r="A613" s="6" t="s">
+      <c r="A613" s="2" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="614" spans="1:1">
-      <c r="A614" s="6" t="s">
+      <c r="A614" s="2" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="615" spans="1:1">
-      <c r="A615" s="6" t="s">
+      <c r="A615" s="2" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="6" t="s">
+      <c r="A616" s="2" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="617" spans="1:1">
-      <c r="A617" s="6" t="s">
+      <c r="A617" s="2" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="6" t="s">
+      <c r="A618" s="2" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="6" t="s">
+      <c r="A619" s="2" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="6" t="s">
+      <c r="A620" s="2" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="6" t="s">
+      <c r="A621" s="2" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="6" t="s">
+      <c r="A622" s="2" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="6" t="s">
+      <c r="A623" s="2" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="6" t="s">
+      <c r="A624" s="2" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="6" t="s">
+      <c r="A625" s="2" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="6" t="s">
+      <c r="A626" s="2" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="6" t="s">
+      <c r="A627" s="2" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="6" t="s">
+      <c r="A628" s="2" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="6" t="s">
+      <c r="A629" s="2" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="6" t="s">
+      <c r="A630" s="2" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="6" t="s">
+      <c r="A631" s="2" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="6" t="s">
+      <c r="A632" s="2" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="6" t="s">
+      <c r="A633" s="2" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="6" t="s">
+      <c r="A634" s="2" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="6" t="s">
+      <c r="A635" s="2" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="6" t="s">
+      <c r="A636" s="2" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="6" t="s">
+      <c r="A637" s="2" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="6" t="s">
+      <c r="A638" s="2" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="6" t="s">
+      <c r="A639" s="2" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="6" t="s">
+      <c r="A640" s="2" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="6" t="s">
+      <c r="A641" s="2" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="6" t="s">
+      <c r="A642" s="2" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="6" t="s">
+      <c r="A643" s="2" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="6" t="s">
+      <c r="A644" s="2" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="6" t="s">
+      <c r="A645" s="2" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="6" t="s">
+      <c r="A646" s="2" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="6" t="s">
+      <c r="A647" s="2" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="6" t="s">
+      <c r="A648" s="2" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="6" t="s">
+      <c r="A649" s="2" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="6" t="s">
+      <c r="A650" s="2" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="6" t="s">
+      <c r="A651" s="2" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="6" t="s">
+      <c r="A652" s="2" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="6" t="s">
+      <c r="A653" s="2" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="6" t="s">
+      <c r="A654" s="2" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="6" t="s">
+      <c r="A655" s="2" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="6" t="s">
+      <c r="A656" s="2" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="6" t="s">
+      <c r="A657" s="2" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="6" t="s">
+      <c r="A658" s="2" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="6" t="s">
+      <c r="A659" s="2" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="6" t="s">
+      <c r="A660" s="2" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="6" t="s">
+      <c r="A661" s="2" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="6" t="s">
+      <c r="A662" s="2" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="6" t="s">
+      <c r="A663" s="2" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="6" t="s">
+      <c r="A664" s="2" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="6" t="s">
+      <c r="A665" s="2" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="6" t="s">
+      <c r="A666" s="2" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="6" t="s">
+      <c r="A667" s="2" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="6" t="s">
+      <c r="A668" s="2" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="6" t="s">
+      <c r="A669" s="2" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="6" t="s">
+      <c r="A670" s="2" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="6" t="s">
+      <c r="A671" s="2" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="6" t="s">
+      <c r="A672" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="6" t="s">
+      <c r="A673" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="6" t="s">
+      <c r="A674" s="2" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="6" t="s">
+      <c r="A675" s="2" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="6" t="s">
+      <c r="A676" s="2" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="6" t="s">
+      <c r="A677" s="2" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="6" t="s">
+      <c r="A678" s="2" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="6" t="s">
+      <c r="A679" s="2" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="6" t="s">
+      <c r="A680" s="2" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="6" t="s">
+      <c r="A681" s="2" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="6" t="s">
+      <c r="A682" s="2" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="6" t="s">
+      <c r="A683" s="2" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="6" t="s">
+      <c r="A684" s="2" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="6" t="s">
+      <c r="A685" s="2" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="6" t="s">
+      <c r="A686" s="2" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="6" t="s">
+      <c r="A687" s="2" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="6" t="s">
+      <c r="A688" s="2" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="6" t="s">
+      <c r="A689" s="2" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="6" t="s">
+      <c r="A690" s="2" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="6" t="s">
+      <c r="A691" s="2" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="6" t="s">
+      <c r="A692" s="2" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="6" t="s">
+      <c r="A693" s="2" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="6" t="s">
+      <c r="A694" s="2" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="6" t="s">
+      <c r="A695" s="2" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="6" t="s">
+      <c r="A696" s="2" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="6" t="s">
+      <c r="A697" s="2" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="6" t="s">
+      <c r="A698" s="2" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="6" t="s">
+      <c r="A699" s="2" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="6" t="s">
+      <c r="A700" s="2" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="6" t="s">
+      <c r="A701" s="2" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="6" t="s">
+      <c r="A702" s="2" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="6" t="s">
+      <c r="A703" s="2" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="6" t="s">
+      <c r="A704" s="2" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="6" t="s">
+      <c r="A705" s="2" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="6" t="s">
+      <c r="A706" s="2" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="6" t="s">
+      <c r="A707" s="2" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="6" t="s">
+      <c r="A708" s="2" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="6" t="s">
+      <c r="A709" s="2" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="6" t="s">
+      <c r="A710" s="2" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="6" t="s">
+      <c r="A711" s="2" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="6" t="s">
+      <c r="A712" s="2" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="6" t="s">
+      <c r="A713" s="2" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="6" t="s">
+      <c r="A714" s="2" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="6" t="s">
+      <c r="A715" s="2" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="6" t="s">
+      <c r="A716" s="2" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="6" t="s">
+      <c r="A717" s="2" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="6" t="s">
+      <c r="A718" s="2" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="6" t="s">
+      <c r="A719" s="2" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="6" t="s">
+      <c r="A720" s="2" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="6" t="s">
+      <c r="A721" s="2" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="6" t="s">
+      <c r="A722" s="2" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="6" t="s">
+      <c r="A723" s="2" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="6" t="s">
+      <c r="A724" s="2" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="6" t="s">
+      <c r="A725" s="2" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="6" t="s">
+      <c r="A726" s="2" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="6" t="s">
+      <c r="A727" s="2" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="6" t="s">
+      <c r="A728" s="2" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="6" t="s">
+      <c r="A729" s="2" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="6" t="s">
+      <c r="A730" s="2" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="6" t="s">
+      <c r="A731" s="2" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="6" t="s">
+      <c r="A732" s="2" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="6" t="s">
+      <c r="A733" s="2" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="6" t="s">
+      <c r="A734" s="2" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="6" t="s">
+      <c r="A735" s="2" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="6" t="s">
+      <c r="A736" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="6" t="s">
+      <c r="A737" s="2" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="6" t="s">
+      <c r="A738" s="2" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="6" t="s">
+      <c r="A739" s="2" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="6" t="s">
+      <c r="A740" s="2" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="6" t="s">
+      <c r="A741" s="2" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="6" t="s">
+      <c r="A742" s="2" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="6" t="s">
+      <c r="A743" s="2" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="6" t="s">
+      <c r="A744" s="2" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="6" t="s">
+      <c r="A745" s="2" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="6" t="s">
+      <c r="A746" s="2" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="6" t="s">
+      <c r="A747" s="2" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="6" t="s">
+      <c r="A748" s="2" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="6" t="s">
+      <c r="A749" s="2" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="6" t="s">
+      <c r="A750" s="2" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="6" t="s">
+      <c r="A751" s="2" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="6" t="s">
+      <c r="A752" s="2" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="6" t="s">
+      <c r="A753" s="2" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="6" t="s">
+      <c r="A754" s="2" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="755" spans="1:1">
-      <c r="A755" s="6" t="s">
+      <c r="A755" s="2" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="6" t="s">
+      <c r="A756" s="2" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="757" spans="1:1">
-      <c r="A757" s="6" t="s">
+      <c r="A757" s="2" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="758" spans="1:1">
-      <c r="A758" s="6" t="s">
+      <c r="A758" s="2" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="759" spans="1:1">
-      <c r="A759" s="6" t="s">
+      <c r="A759" s="2" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="760" spans="1:1">
-      <c r="A760" s="6" t="s">
+      <c r="A760" s="2" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="761" spans="1:1">
-      <c r="A761" s="6" t="s">
+      <c r="A761" s="2" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="762" spans="1:1">
-      <c r="A762" s="6" t="s">
+      <c r="A762" s="2" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="763" spans="1:1">
-      <c r="A763" s="6" t="s">
+      <c r="A763" s="2" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="764" spans="1:1">
-      <c r="A764" s="6" t="s">
+      <c r="A764" s="2" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="765" spans="1:1">
-      <c r="A765" s="6" t="s">
+      <c r="A765" s="2" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="766" spans="1:1">
-      <c r="A766" s="6" t="s">
+      <c r="A766" s="2" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="767" spans="1:1">
-      <c r="A767" s="6" t="s">
+      <c r="A767" s="2" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="768" spans="1:1">
-      <c r="A768" s="6" t="s">
+      <c r="A768" s="2" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="769" spans="1:1">
-      <c r="A769" s="6" t="s">
+      <c r="A769" s="2" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="770" spans="1:1">
-      <c r="A770" s="6" t="s">
+      <c r="A770" s="2" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="771" spans="1:1">
-      <c r="A771" s="6" t="s">
+      <c r="A771" s="2" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="772" spans="1:1">
-      <c r="A772" s="6" t="s">
+      <c r="A772" s="2" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="773" spans="1:1">
-      <c r="A773" s="6" t="s">
+      <c r="A773" s="2" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="774" spans="1:1">
-      <c r="A774" s="6" t="s">
+      <c r="A774" s="2" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="775" spans="1:1">
-      <c r="A775" s="6" t="s">
+      <c r="A775" s="2" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="776" spans="1:1">
-      <c r="A776" s="6" t="s">
+      <c r="A776" s="2" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="777" spans="1:1">
-      <c r="A777" s="6" t="s">
+      <c r="A777" s="2" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="778" spans="1:1">
-      <c r="A778" s="6" t="s">
+      <c r="A778" s="2" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="779" spans="1:1">
-      <c r="A779" s="6" t="s">
+      <c r="A779" s="2" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="780" spans="1:1">
-      <c r="A780" s="6" t="s">
+      <c r="A780" s="2" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="781" spans="1:1">
-      <c r="A781" s="6" t="s">
+      <c r="A781" s="2" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="782" spans="1:1">
-      <c r="A782" s="6" t="s">
+      <c r="A782" s="2" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="783" spans="1:1">
-      <c r="A783" s="6" t="s">
+      <c r="A783" s="2" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="784" spans="1:1">
-      <c r="A784" s="6" t="s">
+      <c r="A784" s="2" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="785" spans="1:1">
-      <c r="A785" s="6" t="s">
+      <c r="A785" s="2" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="786" spans="1:1">
-      <c r="A786" s="6" t="s">
+      <c r="A786" s="2" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="787" spans="1:1">
-      <c r="A787" s="6" t="s">
+      <c r="A787" s="2" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="788" spans="1:1">
-      <c r="A788" s="6" t="s">
+      <c r="A788" s="2" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="789" spans="1:1">
-      <c r="A789" s="6" t="s">
+      <c r="A789" s="2" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="790" spans="1:1">
-      <c r="A790" s="6" t="s">
+      <c r="A790" s="2" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="791" spans="1:1">
-      <c r="A791" s="6" t="s">
+      <c r="A791" s="2" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="792" spans="1:1">
-      <c r="A792" s="6" t="s">
+      <c r="A792" s="2" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="793" spans="1:1">
-      <c r="A793" s="6" t="s">
+      <c r="A793" s="2" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="794" spans="1:1">
-      <c r="A794" s="6" t="s">
+      <c r="A794" s="2" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="795" spans="1:1">
-      <c r="A795" s="6" t="s">
+      <c r="A795" s="2" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="796" spans="1:1">
-      <c r="A796" s="6" t="s">
+      <c r="A796" s="2" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="797" spans="1:1">
-      <c r="A797" s="6" t="s">
+      <c r="A797" s="2" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="798" spans="1:1">
-      <c r="A798" s="6" t="s">
+      <c r="A798" s="2" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="799" spans="1:1">
-      <c r="A799" s="6" t="s">
+      <c r="A799" s="2" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="800" spans="1:1">
-      <c r="A800" s="6" t="s">
+      <c r="A800" s="2" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="801" spans="1:1">
-      <c r="A801" s="6" t="s">
+      <c r="A801" s="2" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="802" spans="1:1">
-      <c r="A802" s="6" t="s">
+      <c r="A802" s="2" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="803" spans="1:1">
-      <c r="A803" s="6" t="s">
+      <c r="A803" s="2" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="804" spans="1:1">
-      <c r="A804" s="6" t="s">
+      <c r="A804" s="2" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="805" spans="1:1">
-      <c r="A805" s="6" t="s">
+      <c r="A805" s="2" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="806" spans="1:1">
-      <c r="A806" s="6" t="s">
+      <c r="A806" s="2" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="807" spans="1:1">
-      <c r="A807" s="6" t="s">
+      <c r="A807" s="2" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="808" spans="1:1">
-      <c r="A808" s="6" t="s">
+      <c r="A808" s="2" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="809" spans="1:1">
-      <c r="A809" s="6" t="s">
+      <c r="A809" s="2" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="810" spans="1:1">
-      <c r="A810" s="6" t="s">
+      <c r="A810" s="2" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="811" spans="1:1">
-      <c r="A811" s="6" t="s">
+      <c r="A811" s="2" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="812" spans="1:1">
-      <c r="A812" s="6" t="s">
+      <c r="A812" s="2" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="813" spans="1:1">
-      <c r="A813" s="6" t="s">
+      <c r="A813" s="2" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="814" spans="1:1">
-      <c r="A814" s="6" t="s">
+      <c r="A814" s="2" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="815" spans="1:1">
-      <c r="A815" s="6" t="s">
+      <c r="A815" s="2" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="816" spans="1:1">
-      <c r="A816" s="6" t="s">
+      <c r="A816" s="2" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="817" spans="1:1">
-      <c r="A817" s="6" t="s">
+      <c r="A817" s="2" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="818" spans="1:1">
-      <c r="A818" s="6" t="s">
+      <c r="A818" s="2" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="819" spans="1:1">
-      <c r="A819" s="6" t="s">
+      <c r="A819" s="2" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="820" spans="1:1">
-      <c r="A820" s="6" t="s">
+      <c r="A820" s="2" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="821" spans="1:1">
-      <c r="A821" s="6" t="s">
+      <c r="A821" s="2" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="822" spans="1:1">
-      <c r="A822" s="6" t="s">
+      <c r="A822" s="2" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="823" spans="1:1">
-      <c r="A823" s="6" t="s">
+      <c r="A823" s="2" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="824" spans="1:1">
-      <c r="A824" s="6" t="s">
+      <c r="A824" s="2" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="825" spans="1:1">
-      <c r="A825" s="6" t="s">
+      <c r="A825" s="2" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="826" spans="1:1">
-      <c r="A826" s="6" t="s">
+      <c r="A826" s="2" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="827" spans="1:1">
-      <c r="A827" s="6" t="s">
+      <c r="A827" s="2" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="828" spans="1:1">
-      <c r="A828" s="6" t="s">
+      <c r="A828" s="2" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="829" spans="1:1">
-      <c r="A829" s="6" t="s">
+      <c r="A829" s="2" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="830" spans="1:1">
-      <c r="A830" s="6" t="s">
+      <c r="A830" s="2" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="831" spans="1:1">
-      <c r="A831" s="6" t="s">
+      <c r="A831" s="2" t="s">
         <v>833</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1">
-      <c r="A832" s="6" t="s">
-        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -7787,16 +7778,16 @@
     </row>
     <row r="2" ht="409.5" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:4">
@@ -7804,139 +7795,139 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" ht="409.5" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" ht="409.5" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C10" t="s">
+        <v>835</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="11" ht="409.5" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" ht="409.5" spans="1:4">
@@ -7944,69 +7935,69 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" ht="409.5" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" ht="409.5" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16" ht="409.5" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" ht="409.5" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C17" t="s">
+        <v>835</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="18" ht="409.5" spans="1:4">
@@ -8014,125 +8005,125 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="19" ht="409.5" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20" ht="409.5" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="21" ht="409.5" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="23" ht="409.5" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" ht="409.5" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" ht="409.5" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B25" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C25" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" ht="409.5" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" ht="409.5" spans="1:4">
@@ -8140,55 +8131,55 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="28" ht="409.5" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" ht="409.5" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C30" t="s">
+        <v>835</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:4">
@@ -8196,13 +8187,13 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" ht="409.5" spans="1:4">
@@ -8210,13 +8201,13 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33" ht="409.5" spans="1:4">
@@ -8224,41 +8215,41 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C33" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34" ht="409.5" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C34" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35" ht="409.5" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B35" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C35" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36" ht="409.5" spans="1:4">
@@ -8266,69 +8257,69 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C36" t="s">
+        <v>835</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="37" ht="409.5" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C37" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="38" ht="409.5" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" ht="409.5" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C39" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" ht="409.5" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B40" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C40" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="41" ht="409.5" spans="1:4">
@@ -8336,27 +8327,27 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C41" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42" ht="409.5" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" ht="409.5" spans="1:4">
@@ -8364,405 +8355,405 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C43" t="s">
+        <v>835</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="44" ht="409.5" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B44" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C44" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" ht="409.5" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C45" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" ht="409.5" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C46" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" ht="409.5" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C47" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="48" ht="409.5" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C48" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C49" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="50" ht="409.5" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C50" t="s">
+        <v>835</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="51" ht="409.5" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B51" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C51" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" ht="409.5" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="53" ht="409.5" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B53" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C53" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" ht="409.5" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C54" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="55" ht="409.5" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B55" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C55" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="56" ht="409.5" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B56" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C56" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="57" ht="409.5" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B57" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C57" t="s">
+        <v>835</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="58" ht="409.5" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C58" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" ht="409.5" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C59" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="60" ht="409.5" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C60" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" ht="409.5" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C61" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="62" ht="409.5" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C62" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="63" ht="409.5" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C63" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="64" ht="409.5" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B64" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C64" t="s">
+        <v>835</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="65" ht="409.5" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B65" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C65" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66" ht="409.5" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C66" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="67" ht="409.5" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B67" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C67" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" ht="409.5" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C68" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="69" ht="409.5" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B69" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C69" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="70" ht="409.5" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B70" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C70" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="71" ht="409.5" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B71" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C71" t="s">
+        <v>835</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="72" ht="409.5" spans="1:4">
@@ -8770,55 +8761,55 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C72" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="73" ht="409.5" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B73" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C73" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="74" ht="409.5" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B74" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C74" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="75" ht="409.5" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B75" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C75" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="76" ht="409.5" spans="1:4">
@@ -8826,265 +8817,265 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C76" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="77" ht="409.5" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C77" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="78" ht="409.5" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B78" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C78" t="s">
+        <v>835</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="79" ht="409.5" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C79" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" ht="409.5" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C80" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="81" ht="409.5" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B81" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C81" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="82" ht="409.5" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B82" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C82" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" ht="409.5" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B83" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C83" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="84" ht="409.5" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B84" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C84" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" ht="409.5" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B85" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C85" t="s">
+        <v>835</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="86" ht="409.5" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B86" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C86" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="87" ht="409.5" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C87" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="88" ht="409.5" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B88" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C88" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" ht="409.5" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C89" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" ht="409.5" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B90" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C90" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="91" ht="409.5" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B91" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C91" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="92" ht="409.5" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B92" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C92" t="s">
+        <v>835</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="93" ht="409.5" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B93" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C93" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="94" ht="409.5" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B94" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C94" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="95" ht="409.5" spans="1:4">
@@ -9092,83 +9083,83 @@
         <v>55</v>
       </c>
       <c r="B95" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C95" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96" ht="409.5" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B96" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C96" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="97" ht="409.5" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C97" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="98" ht="409.5" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B98" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C98" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="99" ht="409.5" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C99" t="s">
+        <v>835</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="100" ht="409.5" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B100" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C100" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="101" ht="409.5" spans="1:4">
@@ -9176,27 +9167,27 @@
         <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C101" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="102" ht="409.5" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B102" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C102" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="103" ht="409.5" spans="1:4">
@@ -9204,27 +9195,27 @@
         <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C103" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="104" ht="409.5" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B104" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C104" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="105" ht="409.5" spans="1:4">
@@ -9232,13 +9223,13 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C105" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:4">
@@ -9246,27 +9237,27 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C106" t="s">
+        <v>835</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="107" ht="409.5" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B107" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C107" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="108" ht="409.5" spans="1:4">
@@ -9274,391 +9265,391 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C108" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="109" ht="409.5" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C109" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" ht="409.5" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B110" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C110" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="111" ht="409.5" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B111" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C111" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" ht="409.5" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C112" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="113" ht="409.5" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B113" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C113" t="s">
+        <v>835</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="114" ht="409.5" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C114" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="115" ht="409.5" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B115" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C115" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="116" ht="409.5" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B116" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C116" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="117" ht="409.5" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B117" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C117" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="118" ht="409.5" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B118" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C118" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="119" ht="409.5" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B119" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C119" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="120" ht="409.5" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B120" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C120" t="s">
+        <v>835</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="121" ht="409.5" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B121" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C121" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="122" ht="409.5" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C122" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="123" ht="409.5" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B123" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C123" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="124" ht="409.5" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B124" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C124" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="125" ht="409.5" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B125" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C125" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="126" ht="409.5" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C126" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="127" ht="409.5" spans="1:4">
       <c r="A127" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C127" t="s">
+        <v>835</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="128" ht="409.5" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B128" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C128" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="129" ht="409.5" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B129" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C129" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="130" ht="409.5" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B130" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C130" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="131" ht="409.5" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B131" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C131" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="132" ht="409.5" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B132" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C132" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="133" ht="409.5" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B133" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C133" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="134" ht="409.5" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B134" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C134" t="s">
+        <v>835</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="135" ht="409.5" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B135" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C135" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="136" ht="409.5" spans="1:4">
@@ -9666,27 +9657,27 @@
         <v>69</v>
       </c>
       <c r="B136" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C136" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="137" ht="409.5" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B137" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C137" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="138" ht="409.5" spans="1:4">
@@ -9694,181 +9685,181 @@
         <v>71</v>
       </c>
       <c r="B138" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C138" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="139" ht="409.5" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B139" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C139" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="140" ht="409.5" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B140" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C140" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="141" ht="409.5" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B141" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C141" t="s">
+        <v>835</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="142" ht="409.5" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B142" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C142" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="143" ht="409.5" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C143" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="144" ht="409.5" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B144" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C144" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="145" ht="409.5" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B145" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C145" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="146" ht="409.5" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B146" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C146" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="147" ht="409.5" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B147" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C147" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="148" ht="409.5" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B148" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C148" t="s">
+        <v>835</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="149" ht="409.5" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B149" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C149" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="150" ht="409.5" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B150" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C150" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="151" ht="409.5" spans="1:4">
@@ -9876,27 +9867,27 @@
         <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C151" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="152" ht="409.5" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B152" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C152" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="153" ht="409.5" spans="1:4">
@@ -9904,27 +9895,27 @@
         <v>74</v>
       </c>
       <c r="B153" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C153" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="154" ht="409.5" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B154" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C154" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="155" ht="409.5" spans="1:4">
@@ -9932,139 +9923,139 @@
         <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C155" t="s">
+        <v>835</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="156" ht="409.5" spans="1:4">
       <c r="A156" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B156" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C156" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="157" ht="409.5" spans="1:4">
       <c r="A157" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B157" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C157" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="158" ht="409.5" spans="1:4">
       <c r="A158" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B158" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C158" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="159" ht="409.5" spans="1:4">
       <c r="A159" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B159" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C159" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="160" ht="409.5" spans="1:4">
       <c r="A160" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B160" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C160" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="161" ht="409.5" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B161" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C161" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="162" ht="409.5" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B162" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C162" t="s">
+        <v>835</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="163" ht="409.5" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B163" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C163" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="164" ht="409.5" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B164" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C164" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="165" ht="409.5" spans="1:4">
@@ -10072,55 +10063,55 @@
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C165" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="166" ht="409.5" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B166" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C166" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="167" ht="409.5" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B167" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C167" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="168" ht="409.5" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B168" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C168" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="169" ht="409.5" spans="1:4">
@@ -10128,153 +10119,153 @@
         <v>30</v>
       </c>
       <c r="B169" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C169" t="s">
+        <v>835</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="170" ht="409.5" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C170" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="171" ht="409.5" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B171" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C171" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="172" ht="409.5" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B172" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C172" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="173" ht="409.5" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B173" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C173" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="174" ht="409.5" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B174" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C174" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="175" ht="409.5" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B175" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C175" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="176" ht="409.5" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B176" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C176" t="s">
+        <v>835</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="177" ht="409.5" spans="1:4">
       <c r="A177" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B177" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C177" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="178" ht="409.5" spans="1:4">
       <c r="A178" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B178" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C178" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="179" ht="409.5" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B179" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C179" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="180" ht="409.5" spans="1:4">
@@ -10282,279 +10273,279 @@
         <v>31</v>
       </c>
       <c r="B180" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C180" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="181" ht="409.5" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B181" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C181" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="182" ht="409.5" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B182" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C182" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="183" ht="409.5" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B183" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C183" t="s">
+        <v>835</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="184" ht="409.5" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B184" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C184" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="185" ht="409.5" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B185" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C185" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="186" ht="409.5" spans="1:4">
       <c r="A186" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B186" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C186" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="187" ht="409.5" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B187" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C187" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="188" ht="409.5" spans="1:4">
       <c r="A188" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B188" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C188" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="189" ht="409.5" spans="1:4">
       <c r="A189" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B189" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C189" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="190" ht="409.5" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C190" t="s">
+        <v>835</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="191" ht="409.5" spans="1:4">
       <c r="A191" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C191" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="192" ht="409.5" spans="1:4">
       <c r="A192" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B192" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C192" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="193" ht="409.5" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B193" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C193" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="194" ht="409.5" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B194" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C194" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="195" ht="409.5" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B195" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C195" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="196" ht="409.5" spans="1:4">
       <c r="A196" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B196" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C196" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="197" ht="409.5" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C197" t="s">
+        <v>835</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="198" ht="409.5" spans="1:4">
       <c r="A198" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B198" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C198" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="199" ht="409.5" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C199" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -10599,4 +10590,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>